--- a/spliced/walkingToRunning/2023-04-03_16-57-58/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-57-58/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-8.995295524597168</v>
+        <v>-7.757678985595703</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.89516067504883</v>
+        <v>-12.53094673156738</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.108983278274536</v>
+        <v>0.3439034819602966</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3753622647413304</v>
+        <v>-0.5661214577783016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.087778420331547</v>
+        <v>0.805141581702479</v>
       </c>
       <c r="H2" t="n">
-        <v>2.298953946103754</v>
+        <v>0.8477507522425696</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-7.757678985595703</v>
+        <v>-5.902198791503906</v>
       </c>
       <c r="D3" t="n">
-        <v>-12.53094673156738</v>
+        <v>-8.129295349121094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3439034819602966</v>
+        <v>-3.702722311019897</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5661214577783016</v>
+        <v>0.1438278629607797</v>
       </c>
       <c r="G3" t="n">
-        <v>0.805141581702479</v>
+        <v>0.8614468347166002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8477507522425696</v>
+        <v>1.115631847037484</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.902198791503906</v>
+        <v>3.664461135864258</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.129295349121094</v>
+        <v>-17.59209632873535</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.702722311019897</v>
+        <v>3.448472261428833</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1438278629607797</v>
+        <v>-0.4003904950372941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8614468347166002</v>
+        <v>-0.7370264149203714</v>
       </c>
       <c r="H4" t="n">
-        <v>1.115631847037484</v>
+        <v>1.407975565526903</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.664461135864258</v>
+        <v>12.62621116638184</v>
       </c>
       <c r="D5" t="n">
-        <v>-17.59209632873535</v>
+        <v>-13.94561958312988</v>
       </c>
       <c r="E5" t="n">
-        <v>3.448472261428833</v>
+        <v>4.861473083496094</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4003904950372941</v>
+        <v>-1.850929208023019</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7370264149203714</v>
+        <v>-0.8067298377912074</v>
       </c>
       <c r="H5" t="n">
-        <v>1.407975565526903</v>
+        <v>1.924195033987769</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.62621116638184</v>
+        <v>-1.86917495727539</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.94561958312988</v>
+        <v>-13.44295883178711</v>
       </c>
       <c r="E6" t="n">
-        <v>4.861473083496094</v>
+        <v>-5.517942905426025</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.850929208023019</v>
+        <v>1.216999459512474</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8067298377912074</v>
+        <v>2.244742146472358</v>
       </c>
       <c r="H6" t="n">
-        <v>1.924195033987769</v>
+        <v>1.425124129069217</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.86917495727539</v>
+        <v>-12.46925640106201</v>
       </c>
       <c r="D7" t="n">
-        <v>-13.44295883178711</v>
+        <v>-12.17165946960449</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.517942905426025</v>
+        <v>5.045797348022461</v>
       </c>
       <c r="F7" t="n">
-        <v>1.216999459512474</v>
+        <v>1.951125894625162</v>
       </c>
       <c r="G7" t="n">
-        <v>2.244742146472358</v>
+        <v>-0.8992925304727453</v>
       </c>
       <c r="H7" t="n">
-        <v>1.425124129069217</v>
+        <v>-2.80149388804878</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-12.46925640106201</v>
+        <v>-6.01265811920166</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.17165946960449</v>
+        <v>-7.838207244873047</v>
       </c>
       <c r="E8" t="n">
-        <v>5.045797348022461</v>
+        <v>-2.695719242095948</v>
       </c>
       <c r="F8" t="n">
-        <v>1.951125894625162</v>
+        <v>2.551841642438747</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8992925304727453</v>
+        <v>-0.6748566922453322</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.80149388804878</v>
+        <v>-4.086812415073823</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.01265811920166</v>
+        <v>26.73387336730957</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.838207244873047</v>
+        <v>-35.77811050415039</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.695719242095948</v>
+        <v>-2.94611930847168</v>
       </c>
       <c r="F9" t="n">
-        <v>2.551841642438747</v>
+        <v>3.262301676052138</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6748566922453322</v>
+        <v>7.791552522133367</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.086812415073823</v>
+        <v>-4.036898785030718</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26.73387336730957</v>
+        <v>-9.356051445007324</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.77811050415039</v>
+        <v>-7.922670841217041</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.94611930847168</v>
+        <v>5.028885364532471</v>
       </c>
       <c r="F10" t="n">
-        <v>3.262301676052138</v>
+        <v>-0.5540796260243908</v>
       </c>
       <c r="G10" t="n">
-        <v>7.791552522133367</v>
+        <v>0.137176956098088</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.036898785030718</v>
+        <v>3.155596782251743</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-9.356051445007324</v>
+        <v>36.33248519897461</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.922670841217041</v>
+        <v>-82.45571899414062</v>
       </c>
       <c r="E11" t="n">
-        <v>5.028885364532471</v>
+        <v>-2.755016803741455</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5540796260243908</v>
+        <v>-5.821180953192928</v>
       </c>
       <c r="G11" t="n">
-        <v>0.137176956098088</v>
+        <v>-0.3604773762299962</v>
       </c>
       <c r="H11" t="n">
-        <v>3.155596782251743</v>
+        <v>6.847419001392469</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.33248519897461</v>
+        <v>12.14756202697754</v>
       </c>
       <c r="D12" t="n">
-        <v>-82.45571899414062</v>
+        <v>1.323548316955566</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.755016803741455</v>
+        <v>-4.848138332366943</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.821180953192928</v>
+        <v>-1.270634695426653</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3604773762299962</v>
+        <v>9.376413344722517</v>
       </c>
       <c r="H12" t="n">
-        <v>6.847419001392469</v>
+        <v>6.209869222542664</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.14756202697754</v>
+        <v>-27.11720466613769</v>
       </c>
       <c r="D13" t="n">
-        <v>1.323548316955566</v>
+        <v>-6.166501045227051</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.848138332366943</v>
+        <v>-2.111397266387939</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.270634695426653</v>
+        <v>3.261642898480927</v>
       </c>
       <c r="G13" t="n">
-        <v>9.376413344722517</v>
+        <v>5.511875408211909</v>
       </c>
       <c r="H13" t="n">
-        <v>6.209869222542664</v>
+        <v>-1.028492839066049</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-27.11720466613769</v>
+        <v>-23.08919525146484</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.166501045227051</v>
+        <v>-69.49562072753906</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.111397266387939</v>
+        <v>16.15834617614746</v>
       </c>
       <c r="F14" t="n">
-        <v>3.261642898480927</v>
+        <v>5.973592050296736</v>
       </c>
       <c r="G14" t="n">
-        <v>5.511875408211909</v>
+        <v>4.099933066318941</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.028492839066049</v>
+        <v>-1.225896279221969</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-23.08919525146484</v>
+        <v>-10.68708801269531</v>
       </c>
       <c r="D15" t="n">
-        <v>-69.49562072753906</v>
+        <v>-11.96834945678711</v>
       </c>
       <c r="E15" t="n">
-        <v>16.15834617614746</v>
+        <v>-0.4801369309425354</v>
       </c>
       <c r="F15" t="n">
-        <v>5.973592050296736</v>
+        <v>1.483463850217993</v>
       </c>
       <c r="G15" t="n">
-        <v>4.099933066318941</v>
+        <v>4.285772220375612</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.225896279221969</v>
+        <v>-1.806800371900048</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-10.68708801269531</v>
+        <v>20.62446975708008</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.96834945678711</v>
+        <v>-62.33862686157227</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4801369309425354</v>
+        <v>16.18105316162109</v>
       </c>
       <c r="F16" t="n">
-        <v>1.483463850217993</v>
+        <v>-3.507514472474761</v>
       </c>
       <c r="G16" t="n">
-        <v>4.285772220375612</v>
+        <v>1.878604103609455</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.806800371900048</v>
+        <v>3.185330727665702</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.62446975708008</v>
+        <v>-75.94793701171875</v>
       </c>
       <c r="D17" t="n">
-        <v>-62.33862686157227</v>
+        <v>-8.823372840881348</v>
       </c>
       <c r="E17" t="n">
-        <v>16.18105316162109</v>
+        <v>-14.5358943939209</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.507514472474761</v>
+        <v>-6.308687647593385</v>
       </c>
       <c r="G17" t="n">
-        <v>1.878604103609455</v>
+        <v>2.062971848187983</v>
       </c>
       <c r="H17" t="n">
-        <v>3.185330727665702</v>
+        <v>5.004165634666524</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-75.94793701171875</v>
+        <v>-7.253152847290039</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.823372840881348</v>
+        <v>-10.62908172607422</v>
       </c>
       <c r="E18" t="n">
-        <v>-14.5358943939209</v>
+        <v>-0.7572973966598511</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.308687647593385</v>
+        <v>-2.792897569150028</v>
       </c>
       <c r="G18" t="n">
-        <v>2.062971848187983</v>
+        <v>2.23644521801742</v>
       </c>
       <c r="H18" t="n">
-        <v>5.004165634666524</v>
+        <v>0.9470839869115668</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7.253152847290039</v>
+        <v>-12.12154960632324</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.62908172607422</v>
+        <v>-18.81453704833984</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.7572973966598511</v>
+        <v>0.9114209413528442</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.792897569150028</v>
+        <v>2.260217314221203</v>
       </c>
       <c r="G19" t="n">
-        <v>2.23644521801742</v>
+        <v>-3.150663144809698</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9470839869115668</v>
+        <v>-5.311289759026373</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-12.12154960632324</v>
+        <v>2.474559783935547</v>
       </c>
       <c r="D20" t="n">
-        <v>-18.81453704833984</v>
+        <v>-9.108858108520508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9114209413528442</v>
+        <v>18.17554664611816</v>
       </c>
       <c r="F20" t="n">
-        <v>2.260217314221203</v>
+        <v>4.283928630278282</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.150663144809698</v>
+        <v>-5.230592103348566</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.311289759026373</v>
+        <v>-8.01730884964933</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.474559783935547</v>
+        <v>-10.10338973999023</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.108858108520508</v>
+        <v>-6.828082084655762</v>
       </c>
       <c r="E21" t="n">
-        <v>18.17554664611816</v>
+        <v>5.437564849853516</v>
       </c>
       <c r="F21" t="n">
-        <v>4.283928630278282</v>
+        <v>0.06544841687701197</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.230592103348566</v>
+        <v>-3.185547882748625</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.01730884964933</v>
+        <v>-1.701872078413778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9.688706398010254</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-28.64854431152344</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4038746356964111</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-8.064484859250227</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-7.12666956174002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.896797829067585</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-21.26608657836914</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.973570823669434</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-19.81748580932617</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.302934056704871</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.102355150832409</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.8136555189938615</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-51.4796142578125</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-10.81356239318848</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-10.4013614654541</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.127995854800499</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.3605925717305229</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.3430995842844817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>69.01158905029297</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-76.07331848144531</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.56989669799805</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.373623056510048</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-6.720149974233094</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.7005343388036227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-14.15320301055908</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.329947471618652</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.596967697143555</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.014144754901412</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-5.344652057923007</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.741643652473547</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>66.06742858886719</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-30.20949363708496</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25.3086986541748</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.249343609072485</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.945478901420671</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.552763677134959</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-70.19232940673828</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-22.23063087463379</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-31.12885093688965</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.602893884648981</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-3.38362657900938</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.5896314640635061</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>37.95425033569336</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.236392974853516</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-15.80910873413086</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.196339511379769</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.290577345287686</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.337645951005574</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-24.9067497253418</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-28.87722587585449</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-10.39637756347656</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4132739001328325</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1.036843425527086</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.001093726797151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.391507625579834</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-34.15201568603516</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-12.95433330535889</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.482481982290137</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.476468096074395</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00721320909322376</v>
       </c>
     </row>
   </sheetData>
